--- a/60. Binary_Investment_Decision.xlsx
+++ b/60. Binary_Investment_Decision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9081EE6-E47A-42B5-829F-7FE112E0B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C06673-7061-44B6-9687-0FE227618FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{557A6052-DD81-4F65-8930-E20F6EF99766}"/>
   </bookViews>
